--- a/analisis/resultados/comparacion_paises/renta_por_pais.xlsx
+++ b/analisis/resultados/comparacion_paises/renta_por_pais.xlsx
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="E120">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="E121">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="E122">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D123">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D124">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D125">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D126">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D127">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D128">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D129">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D130">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D131">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D132">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D133">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D134">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D135">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D136">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="E137">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="E138">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="E139">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D140">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D141">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D142">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D143">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D144">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D145">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D146">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D147">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D148">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D149">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D150">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D151">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D152">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D153">
@@ -11822,7 +11822,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>23167</v>
+        <v>23168</v>
       </c>
       <c r="B2">
         <v>-0.003246665888557902</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>23533</v>
+        <v>23534</v>
       </c>
       <c r="B3">
         <v>0.006279023819487015</v>
@@ -11858,7 +11858,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>23898</v>
+        <v>23899</v>
       </c>
       <c r="B4">
         <v>0.007992177513665126</v>
@@ -11876,7 +11876,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>24263</v>
+        <v>24264</v>
       </c>
       <c r="B5">
         <v>0.02060566025693597</v>
@@ -11894,7 +11894,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>24628</v>
+        <v>24629</v>
       </c>
       <c r="B6">
         <v>-0.004419107826238254</v>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>24994</v>
+        <v>24995</v>
       </c>
       <c r="B7">
         <v>-0.01161617805401889</v>
@@ -11930,7 +11930,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>25359</v>
+        <v>25360</v>
       </c>
       <c r="B8">
         <v>-0.003912175993438178</v>
@@ -11948,7 +11948,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>25724</v>
+        <v>25725</v>
       </c>
       <c r="B9">
         <v>0.004025055359196407</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>26089</v>
+        <v>26090</v>
       </c>
       <c r="B10">
         <v>0.009934527433127527</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>26455</v>
+        <v>26456</v>
       </c>
       <c r="B11">
         <v>0.01074326449997213</v>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>26820</v>
+        <v>26821</v>
       </c>
       <c r="B12">
         <v>0.0239204711384449</v>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>27185</v>
+        <v>27186</v>
       </c>
       <c r="B13">
         <v>0.05085864499326751</v>
@@ -12038,7 +12038,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>27550</v>
+        <v>27551</v>
       </c>
       <c r="B14">
         <v>0.05661853707127002</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>27916</v>
+        <v>27917</v>
       </c>
       <c r="B15">
         <v>0.04793361363946315</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>28281</v>
+        <v>28282</v>
       </c>
       <c r="B16">
         <v>0.04824451248738074</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>28646</v>
+        <v>28647</v>
       </c>
       <c r="B17">
         <v>0.04703370451527033</v>
@@ -12110,7 +12110,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>29011</v>
+        <v>29012</v>
       </c>
       <c r="B18">
         <v>0.09154275765902263</v>
@@ -12128,7 +12128,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>29377</v>
+        <v>29378</v>
       </c>
       <c r="B19">
         <v>0.0966575387170544</v>
@@ -12146,7 +12146,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>29742</v>
+        <v>29743</v>
       </c>
       <c r="B20">
         <v>0.1007053600286558</v>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>30107</v>
+        <v>30108</v>
       </c>
       <c r="B21">
         <v>0.08867874158916557</v>
@@ -12182,7 +12182,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>30472</v>
+        <v>30473</v>
       </c>
       <c r="B22">
         <v>0.06042928722933458</v>
@@ -12200,7 +12200,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>30838</v>
+        <v>30839</v>
       </c>
       <c r="B23">
         <v>0.06247441742099008</v>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>31203</v>
+        <v>31204</v>
       </c>
       <c r="B24">
         <v>0.05861640702145614</v>
@@ -12236,7 +12236,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>31568</v>
+        <v>31569</v>
       </c>
       <c r="B25">
         <v>0.0337956883315966</v>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>31933</v>
+        <v>31934</v>
       </c>
       <c r="B26">
         <v>0.02930917591928976</v>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>32299</v>
+        <v>32300</v>
       </c>
       <c r="B27">
         <v>0.01140100880923048</v>
@@ -12290,7 +12290,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>32664</v>
+        <v>32665</v>
       </c>
       <c r="B28">
         <v>0.05340293123463417</v>
@@ -12308,7 +12308,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>33029</v>
+        <v>33030</v>
       </c>
       <c r="B29">
         <v>0.05498605490750465</v>
@@ -12326,7 +12326,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>33394</v>
+        <v>33395</v>
       </c>
       <c r="B30">
         <v>0.05536083519140974</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>33760</v>
+        <v>33761</v>
       </c>
       <c r="B31">
         <v>0.03459952813125559</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>34125</v>
+        <v>34126</v>
       </c>
       <c r="B32">
         <v>0.01839028920722597</v>
@@ -12380,7 +12380,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>34490</v>
+        <v>34491</v>
       </c>
       <c r="B33">
         <v>0.01512391535739226</v>
@@ -12398,7 +12398,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>34855</v>
+        <v>34856</v>
       </c>
       <c r="B34">
         <v>0.01938601454943325</v>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>35221</v>
+        <v>35222</v>
       </c>
       <c r="B35">
         <v>0.02035523739401826</v>
@@ -12434,7 +12434,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>35586</v>
+        <v>35587</v>
       </c>
       <c r="B36">
         <v>0.01614851990478608</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>35951</v>
+        <v>35952</v>
       </c>
       <c r="B37">
         <v>0.009182718837161367</v>
@@ -12470,7 +12470,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>36316</v>
+        <v>36317</v>
       </c>
       <c r="B38">
         <v>0.01276887045056065</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>36682</v>
+        <v>36683</v>
       </c>
       <c r="B39">
         <v>0.02610688117089517</v>
@@ -12506,7 +12506,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>37047</v>
+        <v>37048</v>
       </c>
       <c r="B40">
         <v>0.0208867715090878</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>37412</v>
+        <v>37413</v>
       </c>
       <c r="B41">
         <v>0.02419549032824443</v>
@@ -12542,7 +12542,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>37777</v>
+        <v>37778</v>
       </c>
       <c r="B42">
         <v>0.0187104579812769</v>
@@ -12560,7 +12560,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>38143</v>
+        <v>38144</v>
       </c>
       <c r="B43">
         <v>0.0229493467587387</v>
@@ -12578,7 +12578,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>38508</v>
+        <v>38509</v>
       </c>
       <c r="B44">
         <v>0.03554103569314353</v>
@@ -12596,7 +12596,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>38873</v>
+        <v>38874</v>
       </c>
       <c r="B45">
         <v>0.04475164995872836</v>
@@ -12614,7 +12614,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>39238</v>
+        <v>39239</v>
       </c>
       <c r="B46">
         <v>0.04569525404624369</v>
@@ -12632,7 +12632,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>39604</v>
+        <v>39605</v>
       </c>
       <c r="B47">
         <v>0.09751778773210845</v>
@@ -12650,7 +12650,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="B48">
         <v>0.05307659021373995</v>
@@ -12668,7 +12668,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>40334</v>
+        <v>40335</v>
       </c>
       <c r="B49">
         <v>0.06501185129001037</v>
@@ -12686,7 +12686,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>40699</v>
+        <v>40700</v>
       </c>
       <c r="B50">
         <v>0.07232947222821964</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41065</v>
+        <v>41066</v>
       </c>
       <c r="B51">
         <v>0.07837830563816162</v>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41430</v>
+        <v>41431</v>
       </c>
       <c r="B52">
         <v>0.06099759053222571</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B53">
         <v>0.05658885926349632</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>42160</v>
+        <v>42161</v>
       </c>
       <c r="B54">
         <v>0.02152059525941483</v>
@@ -12776,7 +12776,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>42526</v>
+        <v>42527</v>
       </c>
       <c r="B55">
         <v>0.008723461602745768</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B56">
         <v>0.01322413489202782</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>43256</v>
+        <v>43257</v>
       </c>
       <c r="B57">
         <v>0.01326024206387626</v>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>36316</v>
+        <v>36317</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>36682</v>
+        <v>36683</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>37047</v>
+        <v>37048</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>37412</v>
+        <v>37413</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>37777</v>
+        <v>37778</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>38143</v>
+        <v>38144</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>38508</v>
+        <v>38509</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>38873</v>
+        <v>38874</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>39238</v>
+        <v>39239</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>39604</v>
+        <v>39605</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>40334</v>
+        <v>40335</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>40699</v>
+        <v>40700</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>41065</v>
+        <v>41066</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>41430</v>
+        <v>41431</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42160</v>
+        <v>42161</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>23167</v>
+        <v>23168</v>
       </c>
       <c r="B77">
         <v>0.2961439757993016</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>23533</v>
+        <v>23534</v>
       </c>
       <c r="B78">
         <v>0.1727722406761475</v>
@@ -13151,7 +13151,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>23898</v>
+        <v>23899</v>
       </c>
       <c r="B79">
         <v>0.1532376281197545</v>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>24263</v>
+        <v>24264</v>
       </c>
       <c r="B80">
         <v>0.134362794185758</v>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>24628</v>
+        <v>24629</v>
       </c>
       <c r="B81">
         <v>0.1372639007610778</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>24994</v>
+        <v>24995</v>
       </c>
       <c r="B82">
         <v>0.1282508687166558</v>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>25359</v>
+        <v>25360</v>
       </c>
       <c r="B83">
         <v>0.09105664000911745</v>
@@ -13241,7 +13241,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>25724</v>
+        <v>25725</v>
       </c>
       <c r="B84">
         <v>0.07964483606262771</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>26089</v>
+        <v>26090</v>
       </c>
       <c r="B85">
         <v>0.09337063280116816</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>26455</v>
+        <v>26456</v>
       </c>
       <c r="B86">
         <v>0.08047951796018996</v>
@@ -13295,7 +13295,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>26820</v>
+        <v>26821</v>
       </c>
       <c r="B87">
         <v>0.1274661168253793</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>27185</v>
+        <v>27186</v>
       </c>
       <c r="B88">
         <v>0.2541323351996195</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>27550</v>
+        <v>27551</v>
       </c>
       <c r="B89">
         <v>0.176672728783164</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>27916</v>
+        <v>27917</v>
       </c>
       <c r="B90">
         <v>0.1699353861688038</v>
@@ -13367,7 +13367,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>28281</v>
+        <v>28282</v>
       </c>
       <c r="B91">
         <v>0.148716440888817</v>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>28646</v>
+        <v>28647</v>
       </c>
       <c r="B92">
         <v>0.1207131623945515</v>
@@ -13403,7 +13403,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>29011</v>
+        <v>29012</v>
       </c>
       <c r="B93">
         <v>0.1647012279197676</v>
@@ -13421,7 +13421,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>29377</v>
+        <v>29378</v>
       </c>
       <c r="B94">
         <v>0.2181221313870793</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>29742</v>
+        <v>29743</v>
       </c>
       <c r="B95">
         <v>0.2292180532414588</v>
@@ -13457,7 +13457,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>30107</v>
+        <v>30108</v>
       </c>
       <c r="B96">
         <v>0.162325803276568</v>
@@ -13475,7 +13475,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>30472</v>
+        <v>30473</v>
       </c>
       <c r="B97">
         <v>0.1412515920130859</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>30838</v>
+        <v>30839</v>
       </c>
       <c r="B98">
         <v>0.1529276752347551</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>31203</v>
+        <v>31204</v>
       </c>
       <c r="B99">
         <v>0.1237964011603338</v>
@@ -13529,7 +13529,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>31568</v>
+        <v>31569</v>
       </c>
       <c r="B100">
         <v>0.05782690663807814</v>
@@ -13547,7 +13547,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>31933</v>
+        <v>31934</v>
       </c>
       <c r="B101">
         <v>0.08200603747776936</v>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>32299</v>
+        <v>32300</v>
       </c>
       <c r="B102">
         <v>0.0559323734624693</v>
@@ -13583,7 +13583,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>32664</v>
+        <v>32665</v>
       </c>
       <c r="B103">
         <v>0.0874516713526956</v>
@@ -13601,7 +13601,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>33029</v>
+        <v>33030</v>
       </c>
       <c r="B104">
         <v>0.1296444393237716</v>
@@ -13619,7 +13619,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>33394</v>
+        <v>33395</v>
       </c>
       <c r="B105">
         <v>0.08674209505624474</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>33760</v>
+        <v>33761</v>
       </c>
       <c r="B106">
         <v>0.06541895973523206</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>34125</v>
+        <v>34126</v>
       </c>
       <c r="B107">
         <v>0.06327137647125047</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>34490</v>
+        <v>34491</v>
       </c>
       <c r="B108">
         <v>0.07256563623476069</v>
@@ -13691,7 +13691,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>34855</v>
+        <v>34856</v>
       </c>
       <c r="B109">
         <v>0.0918593889254178</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>35221</v>
+        <v>35222</v>
       </c>
       <c r="B110">
         <v>0.1455738082993548</v>
@@ -13727,7 +13727,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>35586</v>
+        <v>35587</v>
       </c>
       <c r="B111">
         <v>0.1081963655043464</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>35951</v>
+        <v>35952</v>
       </c>
       <c r="B112">
         <v>0.02316787316377371</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>36316</v>
+        <v>36317</v>
       </c>
       <c r="B113">
         <v>0.1288373126282762</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>36682</v>
+        <v>36683</v>
       </c>
       <c r="B114">
         <v>0.243305766899872</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>37047</v>
+        <v>37048</v>
       </c>
       <c r="B115">
         <v>0.1618557163864527</v>
@@ -13817,7 +13817,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>37412</v>
+        <v>37413</v>
       </c>
       <c r="B116">
         <v>0.23201769144161</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>37777</v>
+        <v>37778</v>
       </c>
       <c r="B117">
         <v>0.2345726303277205</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>38143</v>
+        <v>38144</v>
       </c>
       <c r="B118">
         <v>0.3619315894152785</v>
@@ -13871,7 +13871,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>38508</v>
+        <v>38509</v>
       </c>
       <c r="B119">
         <v>0.4674706813578879</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>38873</v>
+        <v>38874</v>
       </c>
       <c r="B120">
         <v>0.4027367747830152</v>
@@ -13907,7 +13907,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>39238</v>
+        <v>39239</v>
       </c>
       <c r="B121">
         <v>0.3963340664534423</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>39604</v>
+        <v>39605</v>
       </c>
       <c r="B122">
         <v>0.4932742646165079</v>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="B123">
         <v>0.2580288762044998</v>
@@ -13961,7 +13961,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>40334</v>
+        <v>40335</v>
       </c>
       <c r="B124">
         <v>0.424057128504031</v>
@@ -13979,7 +13979,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>40699</v>
+        <v>40700</v>
       </c>
       <c r="B125">
         <v>0.5295177234842168</v>
@@ -13997,7 +13997,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>41065</v>
+        <v>41066</v>
       </c>
       <c r="B126">
         <v>0.4670200127541572</v>
@@ -14015,7 +14015,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>41430</v>
+        <v>41431</v>
       </c>
       <c r="B127">
         <v>0.3949268562409113</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B128">
         <v>0.5563359927116302</v>
@@ -14051,7 +14051,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>42160</v>
+        <v>42161</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>42526</v>
+        <v>42527</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>25724</v>
+        <v>25725</v>
       </c>
       <c r="B132">
         <v>0.00268367181657603</v>
@@ -14114,7 +14114,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>25724</v>
+        <v>25725</v>
       </c>
       <c r="B133">
         <v>0.00622809857484866</v>
@@ -14132,7 +14132,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>25724</v>
+        <v>25725</v>
       </c>
       <c r="B134">
         <v>0.0008511048677057261</v>
@@ -14150,7 +14150,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>25724</v>
+        <v>25725</v>
       </c>
       <c r="B135">
         <v>0.070033267006277</v>
@@ -14168,7 +14168,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>26089</v>
+        <v>26090</v>
       </c>
       <c r="B136">
         <v>0.00394582757690264</v>
@@ -14186,7 +14186,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>26089</v>
+        <v>26090</v>
       </c>
       <c r="B137">
         <v>0.008382248954014671</v>
@@ -14204,7 +14204,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>26089</v>
+        <v>26090</v>
       </c>
       <c r="B138">
         <v>0.0010982300600933</v>
@@ -14222,7 +14222,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>26089</v>
+        <v>26090</v>
       </c>
       <c r="B139">
         <v>0.08645365998261789</v>
@@ -14240,7 +14240,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>26455</v>
+        <v>26456</v>
       </c>
       <c r="B140">
         <v>0.0044389730399401</v>
@@ -14258,7 +14258,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>26455</v>
+        <v>26456</v>
       </c>
       <c r="B141">
         <v>0.007004170766812559</v>
@@ -14276,7 +14276,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>26455</v>
+        <v>26456</v>
       </c>
       <c r="B142">
         <v>0.00101587221275985</v>
@@ -14294,7 +14294,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>26455</v>
+        <v>26456</v>
       </c>
       <c r="B143">
         <v>0.0840906379360758</v>
@@ -14312,7 +14312,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>26820</v>
+        <v>26821</v>
       </c>
       <c r="B144">
         <v>0.00468589415623693</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>26820</v>
+        <v>26821</v>
       </c>
       <c r="B145">
         <v>0.0116129477339784</v>
@@ -14348,7 +14348,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>26820</v>
+        <v>26821</v>
       </c>
       <c r="B146">
         <v>0.00124957968494118</v>
@@ -14366,7 +14366,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>26820</v>
+        <v>26821</v>
       </c>
       <c r="B147">
         <v>0.118892537326445</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>27185</v>
+        <v>27186</v>
       </c>
       <c r="B148">
         <v>0.0172699963186166</v>
@@ -14402,7 +14402,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>27185</v>
+        <v>27186</v>
       </c>
       <c r="B149">
         <v>0.0363968610191211</v>
@@ -14420,7 +14420,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>27185</v>
+        <v>27186</v>
       </c>
       <c r="B150">
         <v>0.0050583872558465</v>
@@ -14438,7 +14438,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>27185</v>
+        <v>27186</v>
       </c>
       <c r="B151">
         <v>0.354257057313851</v>
@@ -14456,7 +14456,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>27550</v>
+        <v>27551</v>
       </c>
       <c r="B152">
         <v>0.0218194896152411</v>
@@ -14474,7 +14474,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>27550</v>
+        <v>27551</v>
       </c>
       <c r="B153">
         <v>0.0308149455111293</v>
@@ -14492,7 +14492,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>27550</v>
+        <v>27551</v>
       </c>
       <c r="B154">
         <v>0.00414976402659186</v>
@@ -14510,7 +14510,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>27550</v>
+        <v>27551</v>
       </c>
       <c r="B155">
         <v>0.255444919640219</v>
@@ -14528,7 +14528,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>27916</v>
+        <v>27917</v>
       </c>
       <c r="B156">
         <v>0.0244555984380105</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>27916</v>
+        <v>27917</v>
       </c>
       <c r="B157">
         <v>0.0297672197414932</v>
@@ -14564,7 +14564,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>27916</v>
+        <v>27917</v>
       </c>
       <c r="B158">
         <v>0.0034427409356168</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>27916</v>
+        <v>27917</v>
       </c>
       <c r="B159">
         <v>0.237255874281084</v>
@@ -14600,7 +14600,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>28281</v>
+        <v>28282</v>
       </c>
       <c r="B160">
         <v>0.0206442721927339</v>
@@ -14618,7 +14618,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>28281</v>
+        <v>28282</v>
       </c>
       <c r="B161">
         <v>0.0190395046237865</v>
@@ -14636,7 +14636,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>28281</v>
+        <v>28282</v>
       </c>
       <c r="B162">
         <v>0.00248655700610103</v>
@@ -14654,7 +14654,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>28281</v>
+        <v>28282</v>
       </c>
       <c r="B163">
         <v>0.173807846973047</v>
@@ -14672,7 +14672,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>28646</v>
+        <v>28647</v>
       </c>
       <c r="B164">
         <v>0.0229993902093329</v>
@@ -14690,7 +14690,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>28646</v>
+        <v>28647</v>
       </c>
       <c r="B165">
         <v>0.0207491307943957</v>
@@ -14708,7 +14708,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>28646</v>
+        <v>28647</v>
       </c>
       <c r="B166">
         <v>0.00234960442059667</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>28646</v>
+        <v>28647</v>
       </c>
       <c r="B167">
         <v>0.167038564022729</v>
@@ -14744,7 +14744,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>29011</v>
+        <v>29012</v>
       </c>
       <c r="B168">
         <v>0.05100348889725011</v>
@@ -14762,7 +14762,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>29011</v>
+        <v>29012</v>
       </c>
       <c r="B169">
         <v>0.0451410652834276</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>29011</v>
+        <v>29012</v>
       </c>
       <c r="B170">
         <v>0.0055105360695076</v>
@@ -14798,7 +14798,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>29011</v>
+        <v>29012</v>
       </c>
       <c r="B171">
         <v>0.374831747096948</v>
@@ -14816,7 +14816,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>29377</v>
+        <v>29378</v>
       </c>
       <c r="B172">
         <v>0.0595674218235372</v>
@@ -14834,7 +14834,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>29377</v>
+        <v>29378</v>
       </c>
       <c r="B173">
         <v>0.0556883662962739</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>29377</v>
+        <v>29378</v>
       </c>
       <c r="B174">
         <v>0.00723037051275337</v>
@@ -14870,7 +14870,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>29377</v>
+        <v>29378</v>
       </c>
       <c r="B175">
         <v>0.3518921782586461</v>
@@ -14888,7 +14888,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>29742</v>
+        <v>29743</v>
       </c>
       <c r="B176">
         <v>0.0492919623294912</v>
@@ -14906,7 +14906,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>29742</v>
+        <v>29743</v>
       </c>
       <c r="B177">
         <v>0.0292901777689239</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>29742</v>
+        <v>29743</v>
       </c>
       <c r="B178">
         <v>0.00631887566161953</v>
@@ -14942,7 +14942,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>29742</v>
+        <v>29743</v>
       </c>
       <c r="B179">
         <v>0.254979124026221</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>30107</v>
+        <v>30108</v>
       </c>
       <c r="B180">
         <v>0.0286026673528258</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>30107</v>
+        <v>30108</v>
       </c>
       <c r="B181">
         <v>0.0210952972258705</v>
@@ -14996,7 +14996,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>30107</v>
+        <v>30108</v>
       </c>
       <c r="B182">
         <v>0.00453320583296302</v>
@@ -15014,7 +15014,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>30107</v>
+        <v>30108</v>
       </c>
       <c r="B183">
         <v>0.141674414934503</v>
@@ -15032,7 +15032,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>30472</v>
+        <v>30473</v>
       </c>
       <c r="B184">
         <v>0.0303412504078441</v>
@@ -15050,7 +15050,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>30472</v>
+        <v>30473</v>
       </c>
       <c r="B185">
         <v>0.0260690657587131</v>
@@ -15068,7 +15068,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>30472</v>
+        <v>30473</v>
       </c>
       <c r="B186">
         <v>0.010713941175209</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>30472</v>
+        <v>30473</v>
       </c>
       <c r="B187">
         <v>0.176146038441469</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>30838</v>
+        <v>30839</v>
       </c>
       <c r="B188">
         <v>0.0376320136000323</v>
@@ -15122,7 +15122,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>30838</v>
+        <v>30839</v>
       </c>
       <c r="B189">
         <v>0.0211949005027588</v>
@@ -15140,7 +15140,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>30838</v>
+        <v>30839</v>
       </c>
       <c r="B190">
         <v>0.0141501024511509</v>
@@ -15158,7 +15158,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>30838</v>
+        <v>30839</v>
       </c>
       <c r="B191">
         <v>0.192270145030259</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>31203</v>
+        <v>31204</v>
       </c>
       <c r="B192">
         <v>0.0312126283610169</v>
@@ -15194,7 +15194,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>31203</v>
+        <v>31204</v>
       </c>
       <c r="B193">
         <v>0.0223138347468186</v>
@@ -15212,7 +15212,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>31203</v>
+        <v>31204</v>
       </c>
       <c r="B194">
         <v>0.0151772092437183</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>31203</v>
+        <v>31204</v>
       </c>
       <c r="B195">
         <v>0.168850913429862</v>
@@ -15248,7 +15248,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>31568</v>
+        <v>31569</v>
       </c>
       <c r="B196">
         <v>0.0103811687318526</v>
@@ -15266,7 +15266,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>31568</v>
+        <v>31569</v>
       </c>
       <c r="B197">
         <v>0.0120664835711829</v>
@@ -15284,7 +15284,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>31568</v>
+        <v>31569</v>
       </c>
       <c r="B198">
         <v>0.00566057404935855</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>31568</v>
+        <v>31569</v>
       </c>
       <c r="B199">
         <v>0.08286789561853719</v>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>31933</v>
+        <v>31934</v>
       </c>
       <c r="B200">
         <v>0.0163231807728055</v>
@@ -15338,7 +15338,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>31933</v>
+        <v>31934</v>
       </c>
       <c r="B201">
         <v>0.0186210537563927</v>
@@ -15356,7 +15356,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>31933</v>
+        <v>31934</v>
       </c>
       <c r="B202">
         <v>0.008155368101849499</v>
@@ -15374,7 +15374,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>31933</v>
+        <v>31934</v>
       </c>
       <c r="B203">
         <v>0.168510918141533</v>
@@ -15392,7 +15392,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>32299</v>
+        <v>32300</v>
       </c>
       <c r="B204">
         <v>0.0112225281323613</v>
@@ -15410,7 +15410,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>32299</v>
+        <v>32300</v>
       </c>
       <c r="B205">
         <v>0.0130361320781595</v>
@@ -15428,7 +15428,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>32299</v>
+        <v>32300</v>
       </c>
       <c r="B206">
         <v>0.00528933988075014</v>
@@ -15446,7 +15446,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>32299</v>
+        <v>32300</v>
       </c>
       <c r="B207">
         <v>0.104649289815872</v>
@@ -15464,7 +15464,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>32664</v>
+        <v>32665</v>
       </c>
       <c r="B208">
         <v>0.0280975784491193</v>
@@ -15482,7 +15482,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>32664</v>
+        <v>32665</v>
       </c>
       <c r="B209">
         <v>0.0198521306146866</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>32664</v>
+        <v>32665</v>
       </c>
       <c r="B210">
         <v>0.00655539282232264</v>
@@ -15518,7 +15518,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>32664</v>
+        <v>32665</v>
       </c>
       <c r="B211">
         <v>0.216384260165437</v>
@@ -15536,7 +15536,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>33029</v>
+        <v>33030</v>
       </c>
       <c r="B212">
         <v>0.022234650774898</v>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>33029</v>
+        <v>33030</v>
       </c>
       <c r="B213">
         <v>0.0280731471834457</v>
@@ -15572,7 +15572,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>33029</v>
+        <v>33030</v>
       </c>
       <c r="B214">
         <v>0.008888278358975</v>
@@ -15590,7 +15590,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>33029</v>
+        <v>33030</v>
       </c>
       <c r="B215">
         <v>0.300460077897688</v>
@@ -15608,7 +15608,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>33394</v>
+        <v>33395</v>
       </c>
       <c r="B216">
         <v>0.00943813343754445</v>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>33394</v>
+        <v>33395</v>
       </c>
       <c r="B217">
         <v>0.0145100635587098</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>33394</v>
+        <v>33395</v>
       </c>
       <c r="B218">
         <v>0.00385817187466782</v>
@@ -15662,7 +15662,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>33394</v>
+        <v>33395</v>
       </c>
       <c r="B219">
         <v>0.172665024738321</v>
@@ -15680,7 +15680,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>33760</v>
+        <v>33761</v>
       </c>
       <c r="B220">
         <v>0.009641399513778161</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>33760</v>
+        <v>33761</v>
       </c>
       <c r="B221">
         <v>0.0148419370230849</v>
@@ -15716,7 +15716,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>33760</v>
+        <v>33761</v>
       </c>
       <c r="B222">
         <v>0.006233250210531151</v>
@@ -15734,7 +15734,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>33760</v>
+        <v>33761</v>
       </c>
       <c r="B223">
         <v>0.165031358906285</v>
@@ -15752,7 +15752,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>34125</v>
+        <v>34126</v>
       </c>
       <c r="B224">
         <v>0.009630191361999791</v>
@@ -15770,7 +15770,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>34125</v>
+        <v>34126</v>
       </c>
       <c r="B225">
         <v>0.0139982520929885</v>
@@ -15788,7 +15788,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>34125</v>
+        <v>34126</v>
       </c>
       <c r="B226">
         <v>0.00563715635840941</v>
@@ -15806,7 +15806,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>34125</v>
+        <v>34126</v>
       </c>
       <c r="B227">
         <v>0.165629192280409</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>34490</v>
+        <v>34491</v>
       </c>
       <c r="B228">
         <v>0.008857371021429479</v>
@@ -15842,7 +15842,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>34490</v>
+        <v>34491</v>
       </c>
       <c r="B229">
         <v>0.0134874716251636</v>
@@ -15860,7 +15860,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>34490</v>
+        <v>34491</v>
       </c>
       <c r="B230">
         <v>0.00421958964386819</v>
@@ -15878,7 +15878,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>34490</v>
+        <v>34491</v>
       </c>
       <c r="B231">
         <v>0.165230828657869</v>
@@ -15896,7 +15896,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>34855</v>
+        <v>34856</v>
       </c>
       <c r="B232">
         <v>0.0106565514740471</v>
@@ -15914,7 +15914,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>34855</v>
+        <v>34856</v>
       </c>
       <c r="B233">
         <v>0.0161549069790589</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>34855</v>
+        <v>34856</v>
       </c>
       <c r="B234">
         <v>0.00347851403292223</v>
@@ -15950,7 +15950,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>34855</v>
+        <v>34856</v>
       </c>
       <c r="B235">
         <v>0.147096684457831</v>
@@ -15968,7 +15968,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>35221</v>
+        <v>35222</v>
       </c>
       <c r="B236">
         <v>0.0141926827078385</v>
@@ -15986,7 +15986,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>35221</v>
+        <v>35222</v>
       </c>
       <c r="B237">
         <v>0.0208350612462135</v>
@@ -16004,7 +16004,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>35221</v>
+        <v>35222</v>
       </c>
       <c r="B238">
         <v>0.00477631043927364</v>
@@ -16022,7 +16022,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>35221</v>
+        <v>35222</v>
       </c>
       <c r="B239">
         <v>0.22720597509061</v>
@@ -16040,7 +16040,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>35586</v>
+        <v>35587</v>
       </c>
       <c r="B240">
         <v>0.0124842934600908</v>
@@ -16058,7 +16058,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>35586</v>
+        <v>35587</v>
       </c>
       <c r="B241">
         <v>0.0159573971746341</v>
@@ -16076,7 +16076,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>35586</v>
+        <v>35587</v>
       </c>
       <c r="B242">
         <v>0.00417701964011495</v>
@@ -16094,7 +16094,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>35586</v>
+        <v>35587</v>
       </c>
       <c r="B243">
         <v>0.169670014554983</v>
@@ -16112,7 +16112,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>35951</v>
+        <v>35952</v>
       </c>
       <c r="B244">
         <v>0.00639270077006171</v>
@@ -16130,7 +16130,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>35951</v>
+        <v>35952</v>
       </c>
       <c r="B245">
         <v>0.00929678395588174</v>
@@ -16148,7 +16148,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>35951</v>
+        <v>35952</v>
       </c>
       <c r="B246">
         <v>0.00253128160007389</v>
@@ -16166,7 +16166,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>35951</v>
+        <v>35952</v>
       </c>
       <c r="B247">
         <v>0.08519600512963031</v>
@@ -16184,7 +16184,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>36316</v>
+        <v>36317</v>
       </c>
       <c r="B248">
         <v>0.0112984923926858</v>
@@ -16202,7 +16202,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>36316</v>
+        <v>36317</v>
       </c>
       <c r="B249">
         <v>0.0154227502367954</v>
@@ -16220,7 +16220,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>36316</v>
+        <v>36317</v>
       </c>
       <c r="B250">
         <v>0.00753978123754768</v>
@@ -16238,7 +16238,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>36316</v>
+        <v>36317</v>
       </c>
       <c r="B251">
         <v>0.126140275839506</v>
@@ -16256,7 +16256,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>36682</v>
+        <v>36683</v>
       </c>
       <c r="B252">
         <v>0.0198869640855447</v>
@@ -16274,7 +16274,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>36682</v>
+        <v>36683</v>
       </c>
       <c r="B253">
         <v>0.0264590318314096</v>
@@ -16292,7 +16292,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>36682</v>
+        <v>36683</v>
       </c>
       <c r="B254">
         <v>0.0143771967022111</v>
@@ -16310,7 +16310,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>36682</v>
+        <v>36683</v>
       </c>
       <c r="B255">
         <v>0.197247884121621</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>37047</v>
+        <v>37048</v>
       </c>
       <c r="B256">
         <v>0.0161339964771952</v>
@@ -16346,7 +16346,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>37047</v>
+        <v>37048</v>
       </c>
       <c r="B257">
         <v>0.0227860779939748</v>
@@ -16364,7 +16364,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>37047</v>
+        <v>37048</v>
       </c>
       <c r="B258">
         <v>0.0125092669472141</v>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>37047</v>
+        <v>37048</v>
       </c>
       <c r="B259">
         <v>0.139544824926007</v>
@@ -16400,7 +16400,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>37412</v>
+        <v>37413</v>
       </c>
       <c r="B260">
         <v>0.0470804086056989</v>
@@ -16418,7 +16418,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>37412</v>
+        <v>37413</v>
       </c>
       <c r="B261">
         <v>0.0234240240596352</v>
@@ -16436,7 +16436,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>37412</v>
+        <v>37413</v>
       </c>
       <c r="B262">
         <v>0.0164931577383532</v>
@@ -16454,7 +16454,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>37412</v>
+        <v>37413</v>
       </c>
       <c r="B263">
         <v>0.184386359175747</v>
@@ -16472,7 +16472,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>37777</v>
+        <v>37778</v>
       </c>
       <c r="B264">
         <v>0.0417733203978432</v>
@@ -16490,7 +16490,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>37777</v>
+        <v>37778</v>
       </c>
       <c r="B265">
         <v>0.0246990494243858</v>
@@ -16508,7 +16508,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>37777</v>
+        <v>37778</v>
       </c>
       <c r="B266">
         <v>0.0182374728030745</v>
@@ -16526,7 +16526,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <v>37777</v>
+        <v>37778</v>
       </c>
       <c r="B267">
         <v>0.233472133665054</v>
@@ -16544,7 +16544,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <v>38143</v>
+        <v>38144</v>
       </c>
       <c r="B268">
         <v>0.0406691283010871</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <v>38143</v>
+        <v>38144</v>
       </c>
       <c r="B269">
         <v>0.0494938148623872</v>
@@ -16580,7 +16580,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <v>38143</v>
+        <v>38144</v>
       </c>
       <c r="B270">
         <v>0.0201210949741776</v>
@@ -16598,7 +16598,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <v>38143</v>
+        <v>38144</v>
       </c>
       <c r="B271">
         <v>0.267986657308756</v>
@@ -16616,7 +16616,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <v>38508</v>
+        <v>38509</v>
       </c>
       <c r="B272">
         <v>0.0484134728148559</v>
@@ -16634,7 +16634,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <v>38508</v>
+        <v>38509</v>
       </c>
       <c r="B273">
         <v>0.072477852404794</v>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <v>38508</v>
+        <v>38509</v>
       </c>
       <c r="B274">
         <v>0.0249931349540251</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <v>38508</v>
+        <v>38509</v>
       </c>
       <c r="B275">
         <v>0.30957429119823</v>
@@ -16688,7 +16688,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <v>38873</v>
+        <v>38874</v>
       </c>
       <c r="B276">
         <v>0.0482776588677362</v>
@@ -16706,7 +16706,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <v>38873</v>
+        <v>38874</v>
       </c>
       <c r="B277">
         <v>0.06884564093934781</v>
@@ -16724,7 +16724,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <v>38873</v>
+        <v>38874</v>
       </c>
       <c r="B278">
         <v>0.0250783554546055</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <v>38873</v>
+        <v>38874</v>
       </c>
       <c r="B279">
         <v>0.293495448688715</v>
@@ -16760,7 +16760,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <v>39238</v>
+        <v>39239</v>
       </c>
       <c r="B280">
         <v>0.0392323603532812</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <v>39238</v>
+        <v>39239</v>
       </c>
       <c r="B281">
         <v>0.0623954066838826</v>
@@ -16796,7 +16796,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <v>39238</v>
+        <v>39239</v>
       </c>
       <c r="B282">
         <v>0.020794199711598</v>
@@ -16814,7 +16814,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <v>39238</v>
+        <v>39239</v>
       </c>
       <c r="B283">
         <v>0.233539696642834</v>
@@ -16832,7 +16832,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <v>39604</v>
+        <v>39605</v>
       </c>
       <c r="B284">
         <v>0.04145675860926661</v>
@@ -16850,7 +16850,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <v>39604</v>
+        <v>39605</v>
       </c>
       <c r="B285">
         <v>0.0527718083844489</v>
@@ -16868,7 +16868,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <v>39604</v>
+        <v>39605</v>
       </c>
       <c r="B286">
         <v>0.0242249871499825</v>
@@ -16886,7 +16886,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <v>39604</v>
+        <v>39605</v>
       </c>
       <c r="B287">
         <v>0.231614108734551</v>
@@ -16904,7 +16904,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="B288">
         <v>0.0213102904542995</v>
@@ -16922,7 +16922,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="B289">
         <v>0.0220343852439297</v>
@@ -16940,7 +16940,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="B290">
         <v>0.0132026422582557</v>
@@ -16958,7 +16958,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <v>39969</v>
+        <v>39970</v>
       </c>
       <c r="B291">
         <v>0.103947835625203</v>
@@ -16976,7 +16976,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <v>40334</v>
+        <v>40335</v>
       </c>
       <c r="B292">
         <v>0.0233606865817559</v>
@@ -16994,7 +16994,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2">
-        <v>40334</v>
+        <v>40335</v>
       </c>
       <c r="B293">
         <v>0.0284350392455642</v>
@@ -17012,7 +17012,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2">
-        <v>40334</v>
+        <v>40335</v>
       </c>
       <c r="B294">
         <v>0.0150085265012024</v>
@@ -17030,7 +17030,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2">
-        <v>40334</v>
+        <v>40335</v>
       </c>
       <c r="B295">
         <v>0.116605907435167</v>
@@ -17048,7 +17048,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2">
-        <v>40699</v>
+        <v>40700</v>
       </c>
       <c r="B296">
         <v>0.0268890246166013</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2">
-        <v>40699</v>
+        <v>40700</v>
       </c>
       <c r="B297">
         <v>0.0366150873360097</v>
@@ -17084,7 +17084,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2">
-        <v>40699</v>
+        <v>40700</v>
       </c>
       <c r="B298">
         <v>0.0199161326276229</v>
@@ -17102,7 +17102,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2">
-        <v>40699</v>
+        <v>40700</v>
       </c>
       <c r="B299">
         <v>0.215435530733027</v>
@@ -17120,7 +17120,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2">
-        <v>41065</v>
+        <v>41066</v>
       </c>
       <c r="B300">
         <v>0.0242558447408521</v>
@@ -17138,7 +17138,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2">
-        <v>41065</v>
+        <v>41066</v>
       </c>
       <c r="B301">
         <v>0.0368578548097543</v>
@@ -17156,7 +17156,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2">
-        <v>41065</v>
+        <v>41066</v>
       </c>
       <c r="B302">
         <v>0.0200920306226434</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2">
-        <v>41065</v>
+        <v>41066</v>
       </c>
       <c r="B303">
         <v>0.170396965770997</v>
@@ -17192,7 +17192,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2">
-        <v>41430</v>
+        <v>41431</v>
       </c>
       <c r="B304">
         <v>0.0221678648845945</v>
@@ -17210,7 +17210,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2">
-        <v>41430</v>
+        <v>41431</v>
       </c>
       <c r="B305">
         <v>0.03506073680197371</v>
@@ -17228,7 +17228,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2">
-        <v>41430</v>
+        <v>41431</v>
       </c>
       <c r="B306">
         <v>0.0185493944914679</v>
@@ -17246,7 +17246,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2">
-        <v>41430</v>
+        <v>41431</v>
       </c>
       <c r="B307">
         <v>0.163737985951015</v>
@@ -17264,7 +17264,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B308">
         <v>0.020568502789127</v>
@@ -17282,7 +17282,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B309">
         <v>0.031499831715049</v>
@@ -17300,7 +17300,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B310">
         <v>0.0186746966097789</v>
@@ -17318,7 +17318,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="B311">
         <v>0.113552005374667</v>
@@ -17336,7 +17336,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2">
-        <v>42160</v>
+        <v>42161</v>
       </c>
       <c r="B312">
         <v>0.00712016893853712</v>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2">
-        <v>42160</v>
+        <v>42161</v>
       </c>
       <c r="B313">
         <v>0.0134065727692375</v>
@@ -17372,7 +17372,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2">
-        <v>42160</v>
+        <v>42161</v>
       </c>
       <c r="B314">
         <v>0.0107608434602048</v>
@@ -17390,7 +17390,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2">
-        <v>42526</v>
+        <v>42527</v>
       </c>
       <c r="B315">
         <v>0.00537246824743345</v>
@@ -17408,7 +17408,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2">
-        <v>42526</v>
+        <v>42527</v>
       </c>
       <c r="B316">
         <v>0.0102885327782618</v>
@@ -17426,7 +17426,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2">
-        <v>42526</v>
+        <v>42527</v>
       </c>
       <c r="B317">
         <v>0.00820121600810678</v>
@@ -17444,7 +17444,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B318">
         <v>0.007238472513579231</v>
@@ -17462,7 +17462,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B319">
         <v>0.0154537083602004</v>
@@ -17480,7 +17480,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B320">
         <v>0.0123533807389309</v>
@@ -17498,7 +17498,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2">
-        <v>43256</v>
+        <v>43257</v>
       </c>
       <c r="B321">
         <v>0.0141509678217918</v>
@@ -17516,7 +17516,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2">
-        <v>43256</v>
+        <v>43257</v>
       </c>
       <c r="B322">
         <v>0.0222151471944557</v>
@@ -17534,7 +17534,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2">
-        <v>43256</v>
+        <v>43257</v>
       </c>
       <c r="B323">
         <v>0.0205380627090789</v>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B324">
         <v>0.0153257384605461</v>
@@ -17570,7 +17570,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B325">
         <v>0.0197256719115534</v>
@@ -17588,7 +17588,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="B326">
         <v>0.0203819585673231</v>

--- a/analisis/resultados/comparacion_paises/renta_por_pais.xlsx
+++ b/analisis/resultados/comparacion_paises/renta_por_pais.xlsx
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D34">
-        <v>2038.949164093488</v>
+        <v>2036.523117433863</v>
       </c>
     </row>
     <row r="35">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>2515.947197298002</v>
+        <v>2516.234576158813</v>
       </c>
     </row>
     <row r="36">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="D36">
-        <v>3047.868824296747</v>
+        <v>3045.857156439994</v>
       </c>
     </row>
     <row r="37">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>2753.643386373699</v>
+        <v>2749.347776345243</v>
       </c>
     </row>
     <row r="38">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="D38">
-        <v>1614.181567687776</v>
+        <v>1609.696633471879</v>
       </c>
       <c r="E38">
-        <v>856.4162237351574</v>
+        <v>853.4382288665929</v>
       </c>
     </row>
     <row r="39">
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="D39">
-        <v>2077.639145860988</v>
+        <v>2038.380115936737</v>
       </c>
       <c r="E39">
-        <v>1301.089593522343</v>
+        <v>1271.540057036908</v>
       </c>
     </row>
     <row r="40">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="D93">
-        <v>3922.058572160116</v>
+        <v>3917.391905003618</v>
       </c>
     </row>
     <row r="94">
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="D94">
-        <v>5127.131691390561</v>
+        <v>5127.717327395275</v>
       </c>
     </row>
     <row r="95">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="D95">
-        <v>5662.467995857653</v>
+        <v>5658.730628695931</v>
       </c>
     </row>
     <row r="96">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="D96">
-        <v>4869.525357166656</v>
+        <v>4861.929027859247</v>
       </c>
     </row>
     <row r="97">
@@ -2172,10 +2172,10 @@
         </is>
       </c>
       <c r="D97">
-        <v>2847.323774156495</v>
+        <v>2839.412607238176</v>
       </c>
       <c r="E97">
-        <v>1510.669136129121</v>
+        <v>1505.416123854469</v>
       </c>
     </row>
     <row r="98">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="D98">
-        <v>3782.544848915237</v>
+        <v>3711.069953137874</v>
       </c>
       <c r="E98">
-        <v>2368.760595293696</v>
+        <v>2314.962779997674</v>
       </c>
     </row>
     <row r="99">
@@ -6363,10 +6363,10 @@
         <v>1998</v>
       </c>
       <c r="B2">
-        <v>0.009990633367597335</v>
+        <v>0.00995589318627212</v>
       </c>
       <c r="C2">
-        <v>0.004871960842303819</v>
+        <v>0.004855019693845713</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -6384,10 +6384,10 @@
         <v>1999</v>
       </c>
       <c r="B3">
-        <v>0.0169396038823721</v>
+        <v>0.01655488214955442</v>
       </c>
       <c r="C3">
-        <v>0.00799630893428064</v>
+        <v>0.007814701746137159</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -8271,10 +8271,10 @@
         <v>1994</v>
       </c>
       <c r="B108">
-        <v>0.03641018670097225</v>
+        <v>0.03636686398681251</v>
       </c>
       <c r="C108">
-        <v>0.01512391535739226</v>
+        <v>0.015105920144476</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8292,10 +8292,10 @@
         <v>1995</v>
       </c>
       <c r="B109">
-        <v>0.04653681169069657</v>
+        <v>0.04654212726168462</v>
       </c>
       <c r="C109">
-        <v>0.01938601454943325</v>
+        <v>0.01938822887681773</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8313,10 +8313,10 @@
         <v>1996</v>
       </c>
       <c r="B110">
-        <v>0.04372915311954686</v>
+        <v>0.0437002908105681</v>
       </c>
       <c r="C110">
-        <v>0.02035523739401826</v>
+        <v>0.0203418024402382</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8334,10 +8334,10 @@
         <v>1997</v>
       </c>
       <c r="B111">
-        <v>0.03286385994041376</v>
+        <v>0.03281259319794727</v>
       </c>
       <c r="C111">
-        <v>0.01614851990478608</v>
+        <v>0.01612332864567426</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8355,10 +8355,10 @@
         <v>1998</v>
       </c>
       <c r="B112">
-        <v>0.01883044223656507</v>
+        <v>0.01877812266088795</v>
       </c>
       <c r="C112">
-        <v>0.009182718837161367</v>
+        <v>0.009157205046933457</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8376,10 +8376,10 @@
         <v>1999</v>
       </c>
       <c r="B113">
-        <v>0.02704993131650211</v>
+        <v>0.02653879632700257</v>
       </c>
       <c r="C113">
-        <v>0.01276887045056065</v>
+        <v>0.01252759011652569</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>34491</v>
       </c>
       <c r="B33">
-        <v>0.01512391535739226</v>
+        <v>0.015105920144476</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>34856</v>
       </c>
       <c r="B34">
-        <v>0.01938601454943325</v>
+        <v>0.01938822887681773</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>35222</v>
       </c>
       <c r="B35">
-        <v>0.02035523739401826</v>
+        <v>0.0203418024402382</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>35587</v>
       </c>
       <c r="B36">
-        <v>0.01614851990478608</v>
+        <v>0.01612332864567426</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>35952</v>
       </c>
       <c r="B37">
-        <v>0.009182718837161367</v>
+        <v>0.009157205046933457</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>36317</v>
       </c>
       <c r="B38">
-        <v>0.01276887045056065</v>
+        <v>0.01252759011652569</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
